--- a/Bản sao của Phân chia công việc.xlsx
+++ b/Bản sao của Phân chia công việc.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tailieu\bc-72\baitap\datVeXemPhim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B4F19-C816-4E63-B31E-CA782A6B6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -73,42 +82,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF363636"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -118,7 +127,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,7 +161,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -166,136 +181,129 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -485,20 +493,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -538,37 +551,37 @@
         <v>10</v>
       </c>
       <c r="C2" s="9">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="D2" s="10">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="H2" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18">
-        <v>45629.0</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="12">
+        <v>45629</v>
+      </c>
+      <c r="D3" s="17">
         <v>0.5</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -576,65 +589,65 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13">
-        <v>45363.0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1.0</v>
+        <v>45363</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="15"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="13">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="C4" s="13">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="D4" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="H4" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21">
-        <v>45629.0</v>
-      </c>
-      <c r="C5" s="21">
-        <v>45363.0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="B5" s="19">
+        <v>45629</v>
+      </c>
+      <c r="C5" s="19">
+        <v>45363</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25">
-        <v>45363.0</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="23">
+        <v>45363</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -642,115 +655,115 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>